--- a/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="96">
   <si>
     <t>TCID</t>
   </si>
@@ -48,6 +48,9 @@
     <t>ClaimMojioCancel</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>InvalidIMEISubmit</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
   </si>
   <si>
     <t>col|Invalid_IMEI_Error</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Verify the Blank IMEI error</t>
@@ -316,8 +316,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -445,7 +446,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -564,8 +565,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,21 +621,21 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -659,8 +660,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G1" activeCellId="0" pane="topLeft" sqref="G1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H1" activeCellId="0" pane="topLeft" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -707,21 +708,21 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
@@ -729,21 +730,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
@@ -751,21 +752,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
@@ -773,23 +774,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
@@ -797,23 +798,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
@@ -821,21 +822,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
@@ -843,21 +844,21 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
@@ -865,21 +866,21 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
@@ -887,21 +888,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
@@ -909,21 +910,21 @@
         <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
@@ -931,21 +932,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
@@ -953,21 +954,21 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
@@ -975,21 +976,21 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="0" t="s">
-        <v>20</v>
+      <c r="H14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
@@ -997,21 +998,21 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="0" t="s">
-        <v>20</v>
+      <c r="H15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
@@ -1019,21 +1020,21 @@
         <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="0" t="s">
-        <v>20</v>
+      <c r="H16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
@@ -1041,21 +1042,21 @@
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="0" t="s">
-        <v>20</v>
+      <c r="H17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
@@ -1063,21 +1064,21 @@
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="0" t="s">
-        <v>20</v>
+      <c r="H18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
@@ -1085,21 +1086,21 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="0" t="s">
-        <v>20</v>
+      <c r="H19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
@@ -1107,367 +1108,331 @@
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G29" s="11"/>
-      <c r="H29" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
       <c r="A31" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
@@ -1475,15 +1440,15 @@
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>74</v>
@@ -1495,7 +1460,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +1682,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="102">
   <si>
     <t>TCID</t>
   </si>
@@ -310,6 +310,59 @@
   </si>
   <si>
     <t>Please enter a valid IMEI number</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"id","selector":"EmailOrUserName"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'OPTIMUS-89', ip: '10.80.6.152', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 7e8c6245-a5bd-41fc-b32c-ad03de2a7a5c</t>
+  </si>
+  <si>
+    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[7]/div/div[2]/div[1]/div/fieldset/form[1]/div[2]/div/input"}
+Command duration or timeout: 20.06 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'OPTIMUS-89', ip: '10.80.6.152', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 7e8c6245-a5bd-41fc-b32c-ad03de2a7a5c</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"id","selector":"myaccount-menu"}
+Command duration or timeout: 20.01 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'OPTIMUS-89', ip: '192.168.1.231', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: df67f2e1-06d2-42b0-8e2a-ae5fdfa2c46d</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//li[@id='claim-mojio-link']/a"}
+Command duration or timeout: 20.03 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'OPTIMUS-89', ip: '192.168.1.231', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: df67f2e1-06d2-42b0-8e2a-ae5fdfa2c46d</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"id","selector":"submit-btn"}
+Command duration or timeout: 20.10 seconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'OPTIMUS-89', ip: '192.168.1.231', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: df67f2e1-06d2-42b0-8e2a-ae5fdfa2c46d</t>
   </si>
 </sst>
 </file>

--- a/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="101">
   <si>
     <t>TCID</t>
   </si>
@@ -135,15 +135,18 @@
     <t>Write the password</t>
   </si>
   <si>
-    <t>writeInInputByXpath</t>
-  </si>
-  <si>
-    <t>signInPasswordXpath</t>
+    <t>signInPasswordId</t>
   </si>
   <si>
     <t>col|Sign_In_Password</t>
   </si>
   <si>
+    <t>FAIL Unable to write Error communicating with the remote browser. It may have died.
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'optimus-88', ip: '172.16.0.104', os.name: 'Windows 7', os.arch: 'x86', os.version: '6.1', java.version: '1.7.0_67'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
     <t>TS006</t>
   </si>
   <si>
@@ -156,6 +159,12 @@
     <t>SubmitXpath</t>
   </si>
   <si>
+    <t>FAIL -- Not able to click on ButtonError communicating with the remote browser. It may have died.
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'optimus-88', ip: '172.16.0.104', os.name: 'Windows 7', os.arch: 'x86', os.version: '6.1', java.version: '1.7.0_67'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
     <t>TS007</t>
   </si>
   <si>
@@ -165,6 +174,15 @@
     <t>col|Dashboard_Page</t>
   </si>
   <si>
+    <t>Error communicating with the remote browser. It may have died.
+Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
+System info: host: 'optimus-88', ip: '172.16.0.104', os.name: 'Windows 7', os.arch: 'x86', os.version: '6.1', java.version: '1.7.0_67'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>FAIL -- Not able to navigate</t>
+  </si>
+  <si>
     <t>Click on My Account</t>
   </si>
   <si>
@@ -189,6 +207,9 @@
     <t>claimMojioUrl</t>
   </si>
   <si>
+    <t>FAIL Not able get the URL</t>
+  </si>
+  <si>
     <t>Verify the Claim Mojio page text</t>
   </si>
   <si>
@@ -313,56 +334,6 @@
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"id","selector":"EmailOrUserName"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
-System info: host: 'OPTIMUS-89', ip: '10.80.6.152', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 7e8c6245-a5bd-41fc-b32c-ad03de2a7a5c</t>
-  </si>
-  <si>
-    <t>FAIL Unable to write Unable to locate element: {"method":"xpath","selector":"html/body/div[7]/div/div[2]/div[1]/div/fieldset/form[1]/div[2]/div/input"}
-Command duration or timeout: 20.06 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
-System info: host: 'OPTIMUS-89', ip: '10.80.6.152', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: 7e8c6245-a5bd-41fc-b32c-ad03de2a7a5c</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"id","selector":"myaccount-menu"}
-Command duration or timeout: 20.01 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
-System info: host: 'OPTIMUS-89', ip: '192.168.1.231', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: df67f2e1-06d2-42b0-8e2a-ae5fdfa2c46d</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"xpath","selector":"//li[@id='claim-mojio-link']/a"}
-Command duration or timeout: 20.03 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
-System info: host: 'OPTIMUS-89', ip: '192.168.1.231', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: df67f2e1-06d2-42b0-8e2a-ae5fdfa2c46d</t>
-  </si>
-  <si>
-    <t>FAIL -- Not able to click on ButtonUnable to locate element: {"method":"id","selector":"submit-btn"}
-Command duration or timeout: 20.10 seconds
-For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
-Build info: version: '2.42.2', revision: '6a6995d', time: '2014-06-03 17:42:30'
-System info: host: 'OPTIMUS-89', ip: '192.168.1.231', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_11'
-Driver info: org.openqa.selenium.firefox.FirefoxDriver
-Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=31.0, platform=XP, nativeEvents=false, acceptSslCerts=true, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
-Session ID: df67f2e1-06d2-42b0-8e2a-ae5fdfa2c46d</t>
   </si>
 </sst>
 </file>
@@ -482,7 +453,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -509,6 +480,10 @@
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
@@ -618,8 +593,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A38" activeCellId="0" pane="topLeft" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -692,7 +667,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -713,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H1" activeCellId="0" pane="topLeft" sqref="H1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E6" activeCellId="0" pane="topLeft" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -857,16 +832,16 @@
         <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -888,7 +863,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -897,261 +872,261 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="0" t="s">
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="0" t="s">
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="0" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="9"/>
       <c r="H14" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
       <c r="H17" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" t="s">
         <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" t="s">
         <v>21</v>
       </c>
@@ -1183,13 +1158,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1202,16 +1177,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
+      <c r="G22" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="5" t="s">
@@ -1220,17 +1195,17 @@
       <c r="B23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>57</v>
+      <c r="C23" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="5" t="s">
@@ -1239,17 +1214,17 @@
       <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>64</v>
+      <c r="C24" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="5" t="s">
@@ -1258,263 +1233,245 @@
       <c r="B25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>66</v>
+      <c r="C25" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="9"/>
+      <c r="F25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="11"/>
+      <c r="C27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="A30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
+      <c r="A31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="A34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
+      <c r="A35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="E35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
+      <c r="A36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="C36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="0" t="s">
-        <v>21</v>
-      </c>
+      <c r="C37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1550,16 +1507,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1567,16 +1524,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1613,15 +1570,15 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>85</v>
+      <c r="A2" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1658,15 +1615,15 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>87</v>
+      <c r="A2" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1703,15 +1660,15 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>89</v>
+      <c r="A2" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -1749,10 +1706,10 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -1760,10 +1717,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -1800,15 +1757,15 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>95</v>
+      <c r="A2" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>

--- a/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/ClaimMojio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,15 +14,17 @@
     <sheet name="NavigateClaimMojio" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="ClaimMojioSubmit" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="ClaimMojioCancel" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="InvalidIMEISubmit" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="InvalidIMEITextSubmit" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="IMEIBlankSubmit" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="InvalidIMEISubmit" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="DuplicateIMEISubmit" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="112">
   <si>
     <t>TCID</t>
   </si>
@@ -48,13 +50,16 @@
     <t>ClaimMojioCancel</t>
   </si>
   <si>
-    <t>N</t>
+    <t>InvalidIMEITextSubmit</t>
+  </si>
+  <si>
+    <t>IMEIBlankSubmit</t>
   </si>
   <si>
     <t>InvalidIMEISubmit</t>
   </si>
   <si>
-    <t>IMEIBlankSubmit</t>
+    <t>DuplicateIMEISubmit</t>
   </si>
   <si>
     <t>TSID</t>
@@ -186,6 +191,24 @@
     <t>col|Claim_Mojio_Page</t>
   </si>
   <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>closebrowser</t>
+  </si>
+  <si>
+    <t>TS008</t>
+  </si>
+  <si>
+    <t>TS009</t>
+  </si>
+  <si>
+    <t>TS010</t>
+  </si>
+  <si>
+    <t>TS011</t>
+  </si>
+  <si>
     <t>Write IMEI number using current date</t>
   </si>
   <si>
@@ -195,18 +218,27 @@
     <t>iemiId</t>
   </si>
   <si>
+    <t>TS012</t>
+  </si>
+  <si>
     <t>Click Submit</t>
   </si>
   <si>
     <t>imeiSubmitId</t>
   </si>
   <si>
+    <t>TS013</t>
+  </si>
+  <si>
     <t>Verify the Mojio Claimed Text</t>
   </si>
   <si>
     <t>col|Mojio_Device_Claimed</t>
   </si>
   <si>
+    <t>TS014</t>
+  </si>
+  <si>
     <t>Click cancel</t>
   </si>
   <si>
@@ -237,10 +269,25 @@
     <t>col|IMEI_Blank_Error</t>
   </si>
   <si>
-    <t>Close the Browser</t>
-  </si>
-  <si>
-    <t>closeBroswer</t>
+    <t>TS015</t>
+  </si>
+  <si>
+    <t>Write same IMEI number using current date</t>
+  </si>
+  <si>
+    <t>TS016</t>
+  </si>
+  <si>
+    <t>TS017</t>
+  </si>
+  <si>
+    <t>Verify the duplicate device error</t>
+  </si>
+  <si>
+    <t>col|Mojio_Device_Duplicate_Error</t>
+  </si>
+  <si>
+    <t>TS018</t>
   </si>
   <si>
     <t>Sign_In_Page</t>
@@ -303,21 +350,25 @@
     <t>Please enter a valid IMEI number</t>
   </si>
   <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>7678789876</t>
+  </si>
+  <si>
+    <t>Mojio device not found.</t>
+  </si>
+  <si>
+    <t>Mojio_Device_Duplicate_Error</t>
+  </si>
+  <si>
+    <t>Mojio device already claimed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  <numFmts count="2">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -343,7 +394,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,16 +429,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF950E"/>
         <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -432,7 +473,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -477,15 +518,14 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -563,18 +603,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C16" activeCellId="0" pane="topLeft" sqref="C16"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A38" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -621,25 +661,43 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -653,28 +711,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C20" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.7091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I11" activeCellId="0" pane="topLeft" sqref="I11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B106" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="32.9285714285714" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="29.8418367346939" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="32.9285714285714" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="14.2448979591837" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2448979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -682,25 +820,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s" s="13">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
@@ -708,742 +843,1918 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="G19" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="C24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="D31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="A39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="4" t="s">
+      <c r="C39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
+      <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="A43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
+      <c r="A44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="C44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="D44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
+      <c r="A45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
+      <c r="A46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
+      <c r="A47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="A50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="A51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="A53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="A54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="A55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
+      <c r="A56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
+      <c r="A57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="G57" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
+      <c r="A58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
+      <c r="A59" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
+      <c r="A60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
+      <c r="A61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
+      <c r="A62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="A63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="G63" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
+      <c r="A64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
+      <c r="A65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D65" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="E65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="A66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="A67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
+      <c r="A68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
+      <c r="A69" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
+      <c r="A70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="71">
+      <c r="A71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="G71" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
+      <c r="A72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="73">
+      <c r="A73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="74">
+      <c r="A74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="75">
+      <c r="A75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="76">
+      <c r="A76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="77">
+      <c r="A77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="78">
+      <c r="A78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F78" s="6"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79">
+      <c r="A79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="80">
+      <c r="A80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="81">
+      <c r="A81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82">
+      <c r="A82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="83">
+      <c r="A83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84">
+      <c r="A84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85">
+      <c r="A85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86">
+      <c r="A86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87">
+      <c r="A87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="88">
+      <c r="A88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="89">
+      <c r="A89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="D89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="90">
+      <c r="A90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91">
+      <c r="A91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="92">
+      <c r="A92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
+      <c r="A93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="D93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
+      <c r="A94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
+      <c r="A95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="96">
+      <c r="A96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="97">
+      <c r="A97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="98">
+      <c r="A98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="99">
+      <c r="A99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
+      <c r="A100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="101">
+      <c r="A101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1464,31 +2775,31 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
+      <selection activeCell="A1" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1496,16 +2807,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1527,32 +2838,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="A12" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="24.4591836734694" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.6836734693878" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
-        <v>82</v>
+      <c r="A2" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1572,32 +2911,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+      <selection activeCell="C14" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="47.7142857142857" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="17.469387755102" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.7142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
-        <v>84</v>
+      <c r="A2" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1617,32 +2984,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="B14" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.6428571428571" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="16.3979591836735" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
-        <v>86</v>
+      <c r="A2" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1662,39 +3057,67 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+      <selection activeCell="D32" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="20.0255102040816" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.1530612244898" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="18.0102040816327" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1714,32 +3137,140 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="C11" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="35.8877551020408" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="17.0714285714286" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.015306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D4" activeCellId="7" pane="topLeft" sqref="D14 D28 D42 D56 D69 D83 D101 D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>88</v>
+      </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="0" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
